--- a/app/results/reviewed/1113002217.xlsx
+++ b/app/results/reviewed/1113002217.xlsx
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': 'LEON\xa0', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DÉCIMA QUINTA', 'pagina_encontrado': 31, 'pagina_real': 31, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGÉSIMA PRIMERA', 'pagina_encontrado': 34, 'pagina_real': 34, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'CUARTA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CREDITO_PESOS': {'valor_encontrado': '$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'valor_real': '$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO', 'valor_real': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-', 'valor_real': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-', 'valor_real': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -', 'valor_real': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A\xa0', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEÓN, GUANAJUATO; BAJO EL FOLIO REAL NÚMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PÚBLICO NÚMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN', 'valor_real': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '3 (TRES)', 'valor_real': '360 (TRESCIENTAS SESENTA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NOTARIO': {'valor_encontrado': ' ', 'valor_real': 'LUIS ANGEL ALFONSO CHICO GONZALEZ', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'DÉCIMA SEGUNDA', 'pagina_encontrado': 24, 'pagina_real': 30, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_NOTARIO': {'valor_encontrado': '5 CINCO', 'valor_real': '\xa05 CINCO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': ' ', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'REA_VSM': {'valor_encontrado': '1.669', 'valor_real': '1.996\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '0.04', 'valor_real': '1.669\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '50% CINCUENTA POR CIENTO', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.5 + 4.2', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA EN CONDOMINIO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}}</t>
+          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': 'LEON\xa0', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'CUARTA', 'valor_real': 'CUARTA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DÉCIMA QUINTA', 'pagina_encontrado': 31, 'pagina_real': 31, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGÉSIMA PRIMERA', 'pagina_encontrado': 34, 'pagina_real': 34, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 29, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'CUARTA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CREDITO_PESOS': {'valor_encontrado': '$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'valor_real': '$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'FOLIO_REAL': {'valor_encontrado': 'FOLIO REAL R20*309941', 'valor_real': 'FOLIO REAL R20*309941', 'pagina_encontrado': 6, 'pagina_real': 6, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'valor_real': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO', 'valor_real': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'valor_real': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'LEON, ESTADO DE GUANAJUATO', 'valor_real': 'LEON, ESTADO DE GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'valor_real': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-', 'valor_real': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-', 'valor_real': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -', 'valor_real': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A\xa0', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEÓN, GUANAJUATO; BAJO EL FOLIO REAL NÚMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PÚBLICO NÚMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN', 'valor_real': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '3 (TRES)', 'valor_real': '360 (TRESCIENTAS SESENTA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NOTARIO': {'valor_encontrado': ' ', 'valor_real': 'LUIS ANGEL ALFONSO CHICO GONZALEZ', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'DÉCIMA SEGUNDA', 'pagina_encontrado': 24, 'pagina_real': 30, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 11, 'pagina_real': 11, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': '5 CINCO', 'valor_real': '\xa05 CINCO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': ' ', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'REA_VSM': {'valor_encontrado': '1.669', 'valor_real': '1.996\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '0.04', 'valor_real': '1.669\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '50% CINCUENTA POR CIENTO', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.5 + 4.2', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA EN CONDOMINIO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/1113002217.xlsx
+++ b/app/results/reviewed/1113002217.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,30 +458,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>modelo_ner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>valor_encontrado</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pagina_encontrado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valor_real</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pagina_real</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>texto_es_correcto</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pagina_es_correcta</t>
         </is>
@@ -492,43 +497,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>df106</t>
+          <t>df006</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CIUDAD_INMUEBLE</t>
+          <t>APODERADO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CIUDAD DEL INMUEBLE</t>
+          <t>APODERADO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEON </t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>53</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>-1</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -537,44 +539,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>df041</t>
+          <t>df106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CLAUSULA_ACTUALIZACION_CREDITO</t>
+          <t>CIUDAD_INMUEBLE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CLAUSULA DE ACTUALIZACIÓ DEL CRÉDITO</t>
+          <t>CIUDAD DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DECIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DECIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>30</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEON </t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>53</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -582,43 +589,48 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>df046</t>
+          <t>df041</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CLAUSULA_CONSTITUCION_HIPOTECA</t>
+          <t>CLAUSULA_ACTUALIZACION_CREDITO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CLAUSULA DE CONSTITUCIÓN DE HIPOTECA</t>
+          <t>CLAUSULA DE ACTUALIZACIÓ DEL CRÉDITO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SEGUNDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SEGUNDA</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DECIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DECIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
       </c>
       <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -627,43 +639,48 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>df050</t>
+          <t>df046</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CLAUSULA_JURISDICCION_COMPETENCIA</t>
+          <t>CLAUSULA_CONSTITUCION_HIPOTECA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CLAUSULA DE JURISDICCIÓN Y/O COMPETENCIA</t>
+          <t>CLAUSULA DE CONSTITUCIÓN DE HIPOTECA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CUARTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>13</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CUARTA</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
       </c>
       <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -672,43 +689,48 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>df043</t>
+          <t>df050</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CLAUSULA_PRORROGA</t>
+          <t>CLAUSULA_JURISDICCION_COMPETENCIA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CLAUSULA DE PRORROGA</t>
+          <t>CLAUSULA DE JURISDICCIÓN Y/O COMPETENCIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DECIMA QUINTA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>31</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>DÉCIMA QUINTA</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>31</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CUARTA</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CUARTA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
       </c>
       <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -717,43 +739,48 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>df044</t>
+          <t>df043</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CLAUSULA_VENCIMIENTO_ANTICIPADO</t>
+          <t>CLAUSULA_PRORROGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CLAUSULA DE VENCIMIENTO ANTICIPADO</t>
+          <t>CLAUSULA DE PRORROGA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VIGESIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>34</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VIGÉSIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>34</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DECIMA QUINTA</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>31</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DÉCIMA QUINTA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>31</v>
       </c>
       <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -762,43 +789,48 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>df029</t>
+          <t>df044</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CLAUSULA_INT_ORD</t>
+          <t>CLAUSULA_VENCIMIENTO_ANTICIPADO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CLAUSULA INT ORD</t>
+          <t>CLAUSULA DE VENCIMIENTO ANTICIPADO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DECIMA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>29</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>DECIMA</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>30</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>VIGESIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>34</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>VIGÉSIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>34</v>
       </c>
       <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -807,44 +839,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>df040</t>
+          <t>df029</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CLAUSULA_PLAZO</t>
+          <t>CLAUSULA_INT_ORD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CLAÚSULA DE PLAZO</t>
+          <t>CLAUSULA INT ORD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CUARTA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>OCTAVA</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>28</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DECIMA</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>29</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DECIMA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>30</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -852,44 +889,49 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>df026</t>
+          <t>df040</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CREDITO_PESOS</t>
+          <t>CLAUSULA_PLAZO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CRÉDITO OTORGADO EN PESOS</t>
+          <t>CLAÚSULA DE PLAZO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>36</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>36</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CUARTA</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OCTAVA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>28</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -897,43 +939,48 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>df054</t>
+          <t>df025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FOLIO_REAL</t>
+          <t>CONDICIONES _CREDITO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DATO DE REGISTRO O FOLIO REAL (COMPRAVENTA)</t>
+          <t>CONDICIONES CRÉDITO OTORGADO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FOLIO REAL R20*309941</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>FOLIO REAL R20*309941</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="b">
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>VSM</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>VSM</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -942,44 +989,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>df105</t>
+          <t>df018</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DESCRIPCION_INMUEBLE</t>
+          <t>CORREO_TRIBUNAL_VIRTUAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DESCRIPCION DEL INMUEBLE</t>
+          <t>CORREO DEL TRIBUNAL VIRTUAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>-1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -987,44 +1031,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>df053</t>
+          <t>df026</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISTRITO_RPP</t>
+          <t>CREDITO_PESOS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DISTRITO DEL RPP</t>
+          <t>CRÉDITO OTORGADO EN PESOS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>36</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>36</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1032,44 +1081,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>df048</t>
+          <t>df017</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DOMICILIO_GARANTIA</t>
+          <t>CUENTA_TRIBUNAL_VIRTUAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DOMICILIO GARANTIA</t>
+          <t>CUENTA DEL TRIBUNAL VIRTUAL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>-1</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1077,44 +1123,49 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>df107</t>
+          <t>df103</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ESTADO_INMUEBLE</t>
+          <t>CURP_ACREDITADO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ESTADO DEL INMUEBLE</t>
+          <t>CURP ACREDITADO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>GUANAJUATO</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>53</v>
-      </c>
-      <c r="J15" t="b">
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MAGA841230MGTRNN 01</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>MAGA841230MGTRNN 01</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1122,35 +1173,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>df055</t>
+          <t>df007</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">FECHA_FOLIO_REAL </t>
+          <t>CEDULA_PROFESIONAL_APODERADO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FECHA DATO DE REGISTRO O FOLIO REAL  (COMPRAVENTA)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
+          <t>CÉDULA PROFESIONAL DEL APODERADO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>-1</v>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
       <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1159,43 +1215,48 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>df021</t>
+          <t>df054</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FECHA_ESCRITURA</t>
+          <t>FOLIO_REAL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FECHA DE ESCRITURA</t>
+          <t>DATO DE REGISTRO O FOLIO REAL (COMPRAVENTA)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FOLIO REAL R20*309941</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FOLIO REAL R20*309941</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
       </c>
       <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1204,43 +1265,48 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>df023</t>
+          <t>df001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>JURISDICCION_NOTARIO</t>
+          <t>DELEGACION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>JURISDICCION DEL NOTARIO</t>
+          <t>DELEGACION</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LEON, ESTADO DE GUANAJUATO</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>LEON, ESTADO DE GUANAJUATO</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="b">
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1249,43 +1315,48 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>df049</t>
+          <t>df105</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JURISDICCION_SOMETIMIENTO_EXPRESO</t>
+          <t>DESCRIPCION_INMUEBLE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>JURISDICCIÓN (SOMETIMIENTO EXPRESO)</t>
+          <t>DESCRIPCION DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>13</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
       </c>
       <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1294,44 +1365,49 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>df109</t>
+          <t>df053</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_1</t>
+          <t>DISTRITO_RPP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 1</t>
+          <t>DISTRITO DEL RPP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1339,43 +1415,48 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>df110</t>
+          <t>df048</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_2</t>
+          <t>DOMICILIO_GARANTIA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 2</t>
+          <t>DOMICILIO GARANTIA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
       <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1384,44 +1465,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>df111</t>
+          <t>df005</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_3</t>
+          <t>DOMICILIO_RECIBIR_NOTIFICACION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 3</t>
+          <t>DOMICILIO PARA OIR Y RECIBIR NOTIFICACION</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A </t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>-1</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1429,44 +1507,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>df112</t>
+          <t>df019</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_4</t>
+          <t>ENTRE_CALLES</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 4</t>
+          <t>ENTRE CALLES SE ENCUENTRA (CUANDO SE REQUIERA)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEÓN, GUANAJUATO; BAJO EL FOLIO REAL NÚMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PÚBLICO NÚMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>-1</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1474,43 +1549,48 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>df039</t>
+          <t>df107</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MENSUALIDADES_CUBRIR</t>
+          <t>ESTADO_INMUEBLE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MENSUALIDADES A CUBRIR</t>
+          <t>ESTADO DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3 (TRES)</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>360 (TRESCIENTAS SESENTA</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>28</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>53</v>
       </c>
       <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1519,44 +1599,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>df024</t>
+          <t>df065</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NOTARIO</t>
+          <t>FECHA_ACTA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NOTARIO</t>
+          <t>FECHA ACTA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>LUIS ANGEL ALFONSO CHICO GONZALEZ</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>-1</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1564,44 +1641,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>df035</t>
+          <t>df055</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_REA</t>
+          <t xml:space="preserve">FECHA_FOLIO_REAL </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO REA</t>
+          <t>FECHA DATO DE REGISTRO O FOLIO REAL  (COMPRAVENTA)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>28</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>28</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>-1</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1609,44 +1683,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>df032</t>
+          <t>df015</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA</t>
+          <t>FECHA_CERTIFICACION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO ROA</t>
+          <t>FECHA DE CERTIFICACION</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>28</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>28</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>-1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1654,44 +1725,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>df031</t>
+          <t>df021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NUM_CLAUSULA_INTERES_MORATORIO</t>
+          <t>FECHA_ESCRITURA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DONDE SE FIJA EL I M</t>
+          <t>FECHA DE ESCRITURA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SEGUNDA</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>24</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>DÉCIMA SEGUNDA</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1699,39 +1775,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>df020</t>
+          <t>df009</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NUM_ESCRITURA</t>
+          <t>FECHA_PODER</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">NÚM.  ESCRITURA DE CONTRATO DE APERTURA DE CREDITO </t>
+          <t>FECHA DE PODER</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>13,865 TRECE MIL OCHOCIENTOS SESENTA Y CINCO</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>-1</v>
       </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
       <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1740,43 +1817,48 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>df027</t>
+          <t>df057</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NUM_CLAUSULA_OTORGAMIENTO_CREDITO</t>
+          <t>FECHA_EMISION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NÚM. DE CLAUSULA DE OTORGAMIENTO DE CRÉDITO</t>
+          <t>FECHA DEL CA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>11</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="b">
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>29 DE JULIO DE 2017</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1785,44 +1867,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>df022</t>
+          <t>df064</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NUM_NOTARIO</t>
+          <t>FECHA_VISITA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NÚM. DE NOTARIO</t>
+          <t>FECHA VISITA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5 CINCO</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 CINCO</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>-1</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1830,43 +1909,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>df038</t>
+          <t>df066</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLAZO_ANIOS</t>
+          <t>JUEZ_EXHORTADO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PLAZO (AÑOS)</t>
+          <t>JUEZ EXHORTADO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>12</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>30 (TREINTA) AÑOS</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>28</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>-1</v>
       </c>
       <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1875,44 +1951,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>df036</t>
+          <t>df016</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>REA_VSM</t>
+          <t>JURISDICCIO_NOTARIO _CERTIFICA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>REA EN VSM</t>
+          <t>JURISDICCIO DE L NOTARIO  QUE CERTIFICA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.669</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>36</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.996 </t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>36</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>-1</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1920,43 +1993,48 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>df033</t>
+          <t>df023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORCENTAJE_ROA</t>
+          <t>JURISDICCION_NOTARIO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ROA %</t>
+          <t>JURISDICCION DEL NOTARIO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>20% (VEINTE POR CIENTO)</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>28</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>20% (VEINTE POR CIENTO)</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>28</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>LEON, ESTADO DE GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>LEON, ESTADO DE GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
       </c>
       <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1965,43 +2043,48 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>df034</t>
+          <t>df049</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ROA_VSM</t>
+          <t>JURISDICCION_SOMETIMIENTO_EXPRESO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ROA EN VSM</t>
+          <t>JURISDICCIÓN (SOMETIMIENTO EXPRESO)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>36</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.669 </t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>36</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>13</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>13</v>
       </c>
       <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2010,44 +2093,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>df115</t>
+          <t>df011</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SUPERFICIE_CONSTRUCCION</t>
+          <t>JURISDICION_NOTARIO_EMITE_PODER</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SUPERFICIE DE CONSTRUCCION</t>
+          <t>JURISDICION DEL NOTARIO QUE EMITE PODER</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>3</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>-1</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2055,43 +2135,48 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>df108</t>
+          <t>df109</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SUPERFICIE_TERRENO</t>
+          <t>COLINDANCIAS_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SUPERFICIE DE TERRENO</t>
+          <t>MEDIDAS Y COLINDANCIAS 1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>50% CINCUENTA POR CIENTO</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>3</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
       <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2100,43 +2185,48 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>df030</t>
+          <t>df110</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TASA_INTERES_MORATORIO</t>
+          <t>COLINDANCIAS_2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS MORATORIO</t>
+          <t>MEDIDAS Y COLINDANCIAS 2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13.7%</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>36</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>9.5 + 4.2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>36</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
       </c>
       <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2145,43 +2235,48 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>df028</t>
+          <t>df111</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TASA_INTERES_ORDINARIO</t>
+          <t>COLINDANCIAS_3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS ORDINARIO</t>
+          <t>MEDIDAS Y COLINDANCIAS 3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>36</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9.5% </t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>36</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A </t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
       </c>
       <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2190,43 +2285,48 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>df042</t>
+          <t>df112</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TEXTO_ACTUALIZACION</t>
+          <t>COLINDANCIAS_4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TEXTO DE ACTUALIZACIÓN</t>
+          <t>MEDIDAS Y COLINDANCIAS 4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>30</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEON, GUANAJUATO; BAJO EL FOLIO REAL NUMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PUBLICO NUMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
       </c>
       <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2235,44 +2335,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>df047</t>
+          <t>df039</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TEXTO_CLAUSULA_HIPOTECA</t>
+          <t>MENSUALIDADES_CUBRIR</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEXTO DE CLAUSULA DE HIPOTECA</t>
+          <t>MENSUALIDADES A CUBRIR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3 (TRES)</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>12</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>360 (TRESCIENTAS SESENTA</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>28</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2280,43 +2385,1638 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>56</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>df056</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MESES_ADEUDADOS_CERTIFICADO_ADEUDOS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MESES ADEUDADOS EN EL CERTIFICADO DE ADEUDOS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>61</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>df061</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MONTO_PESOS_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MONTO EN PESOS DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>df060</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MONTO_VSM_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MONTO EN VSM DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>62.9330</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>629330</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>df003</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NOMBRE_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NOMBRE DEL ACREDITADO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MARTINEZ GONZALEZ ANA KARINA</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>MARTINEZ GONZALEZ ANA KARINA</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>24</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>df024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NOTARIO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NOTARIO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>LUIS ANGEL ALFONSO CHICO GONZALEZ</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>df013</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NOTARIO_CERTIFICA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NOTARIO QUE CERTIFICA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>df010</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NOTARIO_EMITE_PODER</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NOTARIO QUE EMITE EL PODER</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>df002</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NUMERO_CREDITO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NUMERO CRÉDITO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1113002217</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1113002217</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>35</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>df035</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_REA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO REA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>28</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>28</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>32</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>df032</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO ROA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>28</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>28</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>31</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>df031</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NUM_CLAUSULA_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DONDE SE FIJA EL I M</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>24</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>DÉCIMA SEGUNDA</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>30</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>62</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>df062</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NUMERO_HOJAS_CA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NUMERO DE HOJAS DEL CA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>df012</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NUMERO_NOTARIO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NUMERO DE NOTARIO</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>df014</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NUMERO_NOTARIO_CERTIFICA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NUMERO DE NOTARIO QUE CERTIFICA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>df008</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NUMERO_APODER</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NUMERO DE PODER</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>df020</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NUM_ESCRITURA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NÚM.  ESCRITURA DE CONTRATO DE APERTURA DE CREDITO </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>13,865 TRECE MIL OCHOCIENTOS SESENTA Y CINCO</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>27</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>df027</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NUM_CLAUSULA_OTORGAMIENTO_CREDITO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NÚM. DE CLAUSULA DE OTORGAMIENTO DE CRÉDITO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>11</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>11</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>df022</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NUM_NOTARIO</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NÚM. DE NOTARIO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>5 CINCO</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 CINCO</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>38</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>df038</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PLAZO_ANIOS</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PLAZO (AÑOS)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>12</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>30 (TREINTA) AÑOS</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>28</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>63</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>df063</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PRORROGAS_APLICADAS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>PRORROGAS APLICADAS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>31/03/2014</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>41729</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>36</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>df036</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>REA_VSM</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>REA EN VSM</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1.669</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>36</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.996 </t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>36</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>102</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>df102</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>RFC_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RFC DEL ACREDITADO</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MAGA841230641</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>MAGA841230641</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>33</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>df033</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PORCENTAJE_ROA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ROA %</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>20% (VEINTE POR CIENTO)</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>28</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>20% (VEINTE POR CIENTO)</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>28</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>34</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>df034</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ROA_VSM</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ROA EN VSM</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>36</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.669 </t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>36</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>59</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>df059</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SALDO_PESOS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SALDO QUE SE REQUIERE EN PESOS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>58</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>df058</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SUERTE_PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SUERTE PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>187.7420</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1877420</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>115</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>df115</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SUPERFICIE_CONSTRUCCION</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SUPERFICIE DE CONSTRUCCION</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>108</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>df108</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SUPERFICIE_TERRENO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SUPERFICIE DE TERRENO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>50% CINCUENTA POR CIENTO</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>30</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>df030</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>13.7%</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>36</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>9.5 + 4.2</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>36</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>28</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>df028</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_ORDINARIO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS ORDINARIO</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>36</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9.5% </t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>36</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>42</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>df042</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TEXTO_ACTUALIZACION</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TEXTO DE ACTUALIZACIÓN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>30</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>30</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>47</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>df047</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>TEXTO_CLAUSULA_HIPOTECA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TEXTO DE CLAUSULA DE HIPOTECA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>12</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>12</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>104</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>df104</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>TIPO_INMUEBLE</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>TIPO DE INMUEBLE</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>CASA HABITACION</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="H74" t="n">
         <v>3</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>CASA EN CONDOMINIO</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="J74" t="n">
         <v>53</v>
       </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="b">
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>124</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>df124</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VALOR_OPERACION</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>VALOR DE LA OPERACION (VALOR DEL AVALUO DE ADJUDICACION)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>avaluo_adjudicacion</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2363,7 +4063,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -2373,7 +4073,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2383,7 +4083,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -2393,7 +4093,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -2413,7 +4113,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9">
@@ -2424,7 +4124,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': 'LEON\xa0', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'CUARTA', 'valor_real': 'CUARTA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DÉCIMA QUINTA', 'pagina_encontrado': 31, 'pagina_real': 31, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGÉSIMA PRIMERA', 'pagina_encontrado': 34, 'pagina_real': 34, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 29, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'CUARTA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CREDITO_PESOS': {'valor_encontrado': '$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'valor_real': '$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'FOLIO_REAL': {'valor_encontrado': 'FOLIO REAL R20*309941', 'valor_real': 'FOLIO REAL R20*309941', 'pagina_encontrado': 6, 'pagina_real': 6, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'valor_real': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO', 'valor_real': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'valor_real': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'LEON, ESTADO DE GUANAJUATO', 'valor_real': 'LEON, ESTADO DE GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'valor_real': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-', 'valor_real': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-', 'valor_real': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -', 'valor_real': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A\xa0', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEÓN, GUANAJUATO; BAJO EL FOLIO REAL NÚMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PÚBLICO NÚMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN', 'valor_real': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '3 (TRES)', 'valor_real': '360 (TRESCIENTAS SESENTA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NOTARIO': {'valor_encontrado': ' ', 'valor_real': 'LUIS ANGEL ALFONSO CHICO GONZALEZ', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'DÉCIMA SEGUNDA', 'pagina_encontrado': 24, 'pagina_real': 30, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 11, 'pagina_real': 11, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': '5 CINCO', 'valor_real': '\xa05 CINCO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': ' ', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'REA_VSM': {'valor_encontrado': '1.669', 'valor_real': '1.996\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '0.04', 'valor_real': '1.669\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '50% CINCUENTA POR CIENTO', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.5 + 4.2', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA EN CONDOMINIO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}}</t>
+          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 18, 'entidades_incorrectas': 20, 'paginas_correctas': 18, 'paginas_incorrectas': 20, 'porcentaje_entidades_correctas': 0.47368421052631576, 'porcentaje_paginas_correctas': 0.8157894736842105, 'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': 'LEON\xa0', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'CUARTA', 'valor_real': 'CUARTA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DÉCIMA QUINTA', 'pagina_encontrado': 31, 'pagina_real': 31, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGÉSIMA PRIMERA', 'pagina_encontrado': 34, 'pagina_real': 34, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 29, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'CUARTA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CREDITO_PESOS': {'valor_encontrado': '$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'valor_real': '$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'FOLIO_REAL': {'valor_encontrado': 'FOLIO REAL R20*309941', 'valor_real': 'FOLIO REAL R20*309941', 'pagina_encontrado': 6, 'pagina_real': 6, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'valor_real': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO', 'valor_real': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'valor_real': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'LEON, ESTADO DE GUANAJUATO', 'valor_real': 'LEON, ESTADO DE GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'valor_real': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-', 'valor_real': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-', 'valor_real': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -', 'valor_real': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A\xa0', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEON, GUANAJUATO; BAJO EL FOLIO REAL NUMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PUBLICO NUMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN', 'valor_real': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '3 (TRES)', 'valor_real': '360 (TRESCIENTAS SESENTA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NOTARIO': {'valor_encontrado': ' ', 'valor_real': 'LUIS ANGEL ALFONSO CHICO GONZALEZ', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'DÉCIMA SEGUNDA', 'pagina_encontrado': 24, 'pagina_real': 30, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 11, 'pagina_real': 11, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': '5 CINCO', 'valor_real': '\xa05 CINCO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': ' ', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'REA_VSM': {'valor_encontrado': '1.669', 'valor_real': '1.996\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '0.04', 'valor_real': '1.669\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '50% CINCUENTA POR CIENTO', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.5 + 4.2', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA EN CONDOMINIO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}}, 'ner-certificado': {'entidades_correctas': 8, 'entidades_incorrectas': 4, 'paginas_correctas': 8, 'paginas_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6666666666666666, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'valor_encontrado': 'VSM', 'valor_real': 'VSM', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CURP_ACREDITADO': {'valor_encontrado': 'MAGA841230MGTRNN 01', 'valor_real': 'MAGA841230MGTRNN 01', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DELEGACION': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_EMISION': {'valor_encontrado': ' ', 'valor_real': '29 DE JULIO\xa0DE 2017', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'valor_encontrado': '38', 'valor_real': '38', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MONTO_VSM_INTERES_MORATORIO': {'valor_encontrado': '62.9330', 'valor_real': '629330', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NOMBRE_ACREDITADO': {'valor_encontrado': 'MARTINEZ GONZALEZ ANA KARINA', 'valor_real': 'MARTINEZ GONZALEZ ANA KARINA', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_CREDITO': {'valor_encontrado': '1113002217', 'valor_real': '1113002217', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_HOJAS_CA': {'valor_encontrado': '3', 'valor_real': '3', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PRORROGAS_APLICADAS': {'valor_encontrado': '31/03/2014', 'valor_real': '41729', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'RFC_ACREDITADO': {'valor_encontrado': 'MAGA841230641', 'valor_real': 'MAGA841230641', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUERTE_PRINCIPAL': {'valor_encontrado': '187.7420', 'valor_real': '1877420', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/1113002217.xlsx
+++ b/app/results/reviewed/1113002217.xlsx
@@ -4031,7 +4031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4047,82 +4047,70 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>num_credito</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1113002217</t>
-        </is>
+          <t>entidades_correctas</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>entidades_correctas</t>
+          <t>entidades_incorrectas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>entidades_incorrectas</t>
+          <t>porcentaje_entidades_correctas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_entidades_correctas</t>
+          <t>paginas_correctas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>paginas_correctas</t>
+          <t>paginas_incorrectas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>paginas_incorrectas</t>
+          <t>porcentaje_paginas_correctas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_paginas_correctas</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
           <t>entidades</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 18, 'entidades_incorrectas': 20, 'paginas_correctas': 18, 'paginas_incorrectas': 20, 'porcentaje_entidades_correctas': 0.47368421052631576, 'porcentaje_paginas_correctas': 0.8157894736842105, 'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': 'LEON\xa0', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'CUARTA', 'valor_real': 'CUARTA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DÉCIMA QUINTA', 'pagina_encontrado': 31, 'pagina_real': 31, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGÉSIMA PRIMERA', 'pagina_encontrado': 34, 'pagina_real': 34, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 29, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'CUARTA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CREDITO_PESOS': {'valor_encontrado': '$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'valor_real': '$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'FOLIO_REAL': {'valor_encontrado': 'FOLIO REAL R20*309941', 'valor_real': 'FOLIO REAL R20*309941', 'pagina_encontrado': 6, 'pagina_real': 6, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'valor_real': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO', 'valor_real': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'valor_real': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'LEON, ESTADO DE GUANAJUATO', 'valor_real': 'LEON, ESTADO DE GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'valor_real': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-', 'valor_real': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-', 'valor_real': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -', 'valor_real': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A\xa0', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEON, GUANAJUATO; BAJO EL FOLIO REAL NUMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PUBLICO NUMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN', 'valor_real': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '3 (TRES)', 'valor_real': '360 (TRESCIENTAS SESENTA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NOTARIO': {'valor_encontrado': ' ', 'valor_real': 'LUIS ANGEL ALFONSO CHICO GONZALEZ', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'DÉCIMA SEGUNDA', 'pagina_encontrado': 24, 'pagina_real': 30, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 11, 'pagina_real': 11, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': '5 CINCO', 'valor_real': '\xa05 CINCO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': ' ', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'REA_VSM': {'valor_encontrado': '1.669', 'valor_real': '1.996\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '0.04', 'valor_real': '1.669\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '50% CINCUENTA POR CIENTO', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.5 + 4.2', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA EN CONDOMINIO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}}, 'ner-certificado': {'entidades_correctas': 8, 'entidades_incorrectas': 4, 'paginas_correctas': 8, 'paginas_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6666666666666666, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'valor_encontrado': 'VSM', 'valor_real': 'VSM', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CURP_ACREDITADO': {'valor_encontrado': 'MAGA841230MGTRNN 01', 'valor_real': 'MAGA841230MGTRNN 01', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DELEGACION': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_EMISION': {'valor_encontrado': ' ', 'valor_real': '29 DE JULIO\xa0DE 2017', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'valor_encontrado': '38', 'valor_real': '38', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MONTO_VSM_INTERES_MORATORIO': {'valor_encontrado': '62.9330', 'valor_real': '629330', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NOMBRE_ACREDITADO': {'valor_encontrado': 'MARTINEZ GONZALEZ ANA KARINA', 'valor_real': 'MARTINEZ GONZALEZ ANA KARINA', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_CREDITO': {'valor_encontrado': '1113002217', 'valor_real': '1113002217', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_HOJAS_CA': {'valor_encontrado': '3', 'valor_real': '3', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PRORROGAS_APLICADAS': {'valor_encontrado': '31/03/2014', 'valor_real': '41729', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'RFC_ACREDITADO': {'valor_encontrado': 'MAGA841230641', 'valor_real': 'MAGA841230641', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUERTE_PRINCIPAL': {'valor_encontrado': '187.7420', 'valor_real': '1877420', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}}</t>
         </is>

--- a/app/results/reviewed/1113002217.xlsx
+++ b/app/results/reviewed/1113002217.xlsx
@@ -4031,7 +4031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4047,72 +4047,82 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>entidades_correctas</t>
+          <t>id_credito_testeado</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>entidades_incorrectas</t>
+          <t>entidades_correctas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_entidades_correctas</t>
+          <t>entidades_incorrectas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>paginas_correctas</t>
+          <t>porcentaje_entidades_correctas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>paginas_incorrectas</t>
+          <t>paginas_correctas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_paginas_correctas</t>
+          <t>paginas_incorrectas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>porcentaje_paginas_correctas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>entidades</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 18, 'entidades_incorrectas': 20, 'paginas_correctas': 18, 'paginas_incorrectas': 20, 'porcentaje_entidades_correctas': 0.47368421052631576, 'porcentaje_paginas_correctas': 0.8157894736842105, 'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': 'LEON\xa0', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'CUARTA', 'valor_real': 'CUARTA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DÉCIMA QUINTA', 'pagina_encontrado': 31, 'pagina_real': 31, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGÉSIMA PRIMERA', 'pagina_encontrado': 34, 'pagina_real': 34, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 29, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'CUARTA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CREDITO_PESOS': {'valor_encontrado': '$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'valor_real': '$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'FOLIO_REAL': {'valor_encontrado': 'FOLIO REAL R20*309941', 'valor_real': 'FOLIO REAL R20*309941', 'pagina_encontrado': 6, 'pagina_real': 6, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'valor_real': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO', 'valor_real': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'valor_real': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'LEON, ESTADO DE GUANAJUATO', 'valor_real': 'LEON, ESTADO DE GUANAJUATO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'valor_real': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-', 'valor_real': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-', 'valor_real': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -', 'valor_real': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A\xa0', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEON, GUANAJUATO; BAJO EL FOLIO REAL NUMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PUBLICO NUMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN', 'valor_real': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '3 (TRES)', 'valor_real': '360 (TRESCIENTAS SESENTA', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NOTARIO': {'valor_encontrado': ' ', 'valor_real': 'LUIS ANGEL ALFONSO CHICO GONZALEZ', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'DÉCIMA SEGUNDA', 'pagina_encontrado': 24, 'pagina_real': 30, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 11, 'pagina_real': 11, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': '5 CINCO', 'valor_real': '\xa05 CINCO', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': ' ', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 12, 'pagina_real': 28, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'REA_VSM': {'valor_encontrado': '1.669', 'valor_real': '1.996\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 28, 'pagina_real': 28, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '0.04', 'valor_real': '1.669\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '50% CINCUENTA POR CIENTO', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.5 + 4.2', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%\xa0', 'pagina_encontrado': 36, 'pagina_real': 36, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 30, 'pagina_real': 30, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA EN CONDOMINIO', 'pagina_encontrado': 3, 'pagina_real': 53, 'texto_es_correcto': False, 'pagina_es_correcta': False}}, 'ner-certificado': {'entidades_correctas': 8, 'entidades_incorrectas': 4, 'paginas_correctas': 8, 'paginas_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6666666666666666, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'valor_encontrado': 'VSM', 'valor_real': 'VSM', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CURP_ACREDITADO': {'valor_encontrado': 'MAGA841230MGTRNN 01', 'valor_real': 'MAGA841230MGTRNN 01', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DELEGACION': {'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_EMISION': {'valor_encontrado': ' ', 'valor_real': '29 DE JULIO\xa0DE 2017', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'valor_encontrado': '38', 'valor_real': '38', 'pagina_encontrado': 3, 'pagina_real': 3, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MONTO_VSM_INTERES_MORATORIO': {'valor_encontrado': '62.9330', 'valor_real': '629330', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NOMBRE_ACREDITADO': {'valor_encontrado': 'MARTINEZ GONZALEZ ANA KARINA', 'valor_real': 'MARTINEZ GONZALEZ ANA KARINA', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_CREDITO': {'valor_encontrado': '1113002217', 'valor_real': '1113002217', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_HOJAS_CA': {'valor_encontrado': '3', 'valor_real': '3', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PRORROGAS_APLICADAS': {'valor_encontrado': '31/03/2014', 'valor_real': '41729', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'RFC_ACREDITADO': {'valor_encontrado': 'MAGA841230641', 'valor_real': 'MAGA841230641', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUERTE_PRINCIPAL': {'valor_encontrado': '187.7420', 'valor_real': '1877420', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}}</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 18, 'entidades_incorrectas': 20, 'porcentaje_entidades_correctas': 0.47368421052631576, 'paginas_correctas': 18, 'paginas_incorrectas': 20, 'porcentaje_paginas_correctas': 0.8157894736842105, 'CIUDAD_INMUEBLE': {'pagina_encontrado': 3, 'pagina_es_correcta': False, 'pagina_real': 53, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'LEON\xa0'}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'pagina_encontrado': 30, 'pagina_es_correcta': True, 'pagina_real': 30, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA'}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA'}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': 'CUARTA', 'valor_real': 'CUARTA'}, 'CLAUSULA_PRORROGA': {'pagina_encontrado': 31, 'pagina_es_correcta': True, 'pagina_real': 31, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DÉCIMA QUINTA'}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'pagina_encontrado': 34, 'pagina_es_correcta': True, 'pagina_real': 34, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGÉSIMA PRIMERA'}, 'CLAUSULA_INT_ORD': {'pagina_encontrado': 29, 'pagina_es_correcta': True, 'pagina_real': 30, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA'}, 'CLAUSULA_PLAZO': {'pagina_encontrado': 12, 'pagina_es_correcta': False, 'pagina_real': 28, 'texto_es_correcto': False, 'valor_encontrado': 'CUARTA', 'valor_real': 'OCTAVA'}, 'CREDITO_PESOS': {'pagina_encontrado': 36, 'pagina_es_correcta': True, 'pagina_real': 36, 'texto_es_correcto': False, 'valor_encontrado': '$340,999.81 CIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.', 'valor_real': '$340,999.81 MONTO (EN PESOS) DEL CREDITO OTORGADO TREŚCIENTOS. CUARENTA MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 81/100 M.N.'}, 'FOLIO_REAL': {'pagina_encontrado': 6, 'pagina_es_correcta': True, 'pagina_real': 6, 'texto_es_correcto': True, 'valor_encontrado': 'FOLIO REAL R20*309941', 'valor_real': 'FOLIO REAL R20*309941'}, 'DESCRIPCION_INMUEBLE': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': True, 'valor_encontrado': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO', 'valor_real': 'LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO'}, 'DOMICILIO_GARANTIA': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO', 'valor_real': 'CASA HABITACION MARCADA CON EL NUMERO 203 DOSCIENTOS TRES, UBICADA EN CALLE CIRCUITO CAMPESTRE SAUCE, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 2 DOS, DE LA MANZANA NUMERO 118 CIENTO DIECIOCHO, DEL FRACCIONAMIENTO URBIVILLA DEL ROBLE DE ESTA CIUDAD DE LEON GUANAJUATO.'}, 'ESTADO_INMUEBLE': {'pagina_encontrado': 3, 'pagina_es_correcta': False, 'pagina_real': 53, 'texto_es_correcto': True, 'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO'}, 'FECHA_ESCRITURA': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': True, 'valor_encontrado': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE', 'valor_real': '07 SIETE DIAS DEL MES DE ENERO DEL AÑO 2013 DOS MIL TRECE'}, 'JURISDICCION_NOTARIO': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': True, 'valor_encontrado': 'LEON, ESTADO DE GUANAJUATO', 'valor_real': 'LEON, ESTADO DE GUANAJUATO'}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'valor_real': 'DISTRITO FEDERAL O A LA DE LOS TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA'}, 'COLINDANCIAS_1': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE.-', 'valor_real': 'AL NORESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS, CON CALLE CIRCUITO CAMPESTRE SAUCE'}, 'COLINDANCIAS_2': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO.-', 'valor_real': 'AL SUROESTE: 5.925 MTS, CINCO METROS NOVECIENTOS VEINTICINCO MILIMETROS Y LINDA CON LA CASA 104 CIENTO CUATRO'}, 'COLINDANCIAS_3': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A -', 'valor_real': 'AL SURESTE: 15.00 MTS, QUINCE METROS Y LINDA CON CASA 201-A DOSCIENTOS UNO LETRA A\xa0'}, 'COLINDANCIAS_4': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A. - CON UN PRO-INDIVISO DE 50% CINCUENTA POR CIENTO. - DICHO INMUEBLE SE ENCUENTRA REGISTRADO EN EL REGISTRO DE PROPIEDAD Y DEL COMERCIO DE ESTA CIUDAD DE LEON, GUANAJUATO; BAJO EL FOLIO REAL NUMERO R20*429215.- SEGUNDO.- FIDEICOMISO. MEDIANTE ESCRITURA PUBLICA NUMERO.- 27,797 VEINTISIETE MIL SETECIENTOS NOVENTA Y SIETE DE FECHA PRIMERO DE DICIEMBRE DEL AÑO 2009 DOS MIL NUEVE, PASADA ANTE LA FE DEL LICENCIADO JORGE HUMBERTO CARPIO MENDOZA, NOTARIO PUBLICO NUMERO 95 NOVENTA Y CINCO, EN LEGAL EJERCICIO EN', 'valor_real': 'AL NOROESTE: 15.00 MTS., QUINCE METROS Y LINDA CON LA CASA 203-A DOSCIENTOS TRES LETRA A'}, 'MENSUALIDADES_CUBRIR': {'pagina_encontrado': 12, 'pagina_es_correcta': False, 'pagina_real': 28, 'texto_es_correcto': False, 'valor_encontrado': '3 (TRES)', 'valor_real': '360 (TRESCIENTAS SESENTA'}, 'NOTARIO': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'LUIS ANGEL ALFONSO CHICO GONZALEZ'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'pagina_encontrado': 28, 'pagina_es_correcta': True, 'pagina_real': 28, 'texto_es_correcto': True, 'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'pagina_encontrado': 28, 'pagina_es_correcta': True, 'pagina_real': 28, 'texto_es_correcto': True, 'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA'}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'pagina_encontrado': 24, 'pagina_es_correcta': False, 'pagina_real': 30, 'texto_es_correcto': False, 'valor_encontrado': 'SEGUNDA', 'valor_real': 'DÉCIMA SEGUNDA'}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'pagina_encontrado': 11, 'pagina_es_correcta': True, 'pagina_real': 11, 'texto_es_correcto': True, 'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA'}, 'NUM_NOTARIO': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': '5 CINCO', 'valor_real': '\xa05 CINCO'}, 'PLAZO_ANIOS': {'pagina_encontrado': 12, 'pagina_es_correcta': False, 'pagina_real': 28, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '30 (TREINTA) AÑOS'}, 'REA_VSM': {'pagina_encontrado': 36, 'pagina_es_correcta': True, 'pagina_real': 36, 'texto_es_correcto': False, 'valor_encontrado': '1.669', 'valor_real': '1.996\xa0'}, 'PORCENTAJE_ROA': {'pagina_encontrado': 28, 'pagina_es_correcta': True, 'pagina_real': 28, 'texto_es_correcto': True, 'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)'}, 'ROA_VSM': {'pagina_encontrado': 36, 'pagina_es_correcta': True, 'pagina_real': 36, 'texto_es_correcto': False, 'valor_encontrado': '0.04', 'valor_real': '1.669\xa0'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': True, 'valor_encontrado': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS'}, 'SUPERFICIE_TERRENO': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': False, 'valor_encontrado': '50% CINCUENTA POR CIENTO', 'valor_real': '88.875 M2. OCHENTA Y OCHO METROS OCHOCIENTOS SETENTA Y CINCO CENTIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 36, 'pagina_es_correcta': True, 'pagina_real': 36, 'texto_es_correcto': False, 'valor_encontrado': '13.7%', 'valor_real': '9.5 + 4.2'}, 'TASA_INTERES_ORDINARIO': {'pagina_encontrado': 36, 'pagina_es_correcta': True, 'pagina_real': 36, 'texto_es_correcto': False, 'valor_encontrado': '9.5%', 'valor_real': '9.5%\xa0'}, 'TEXTO_ACTUALIZACION': {'pagina_encontrado': 30, 'pagina_es_correcta': True, 'pagina_real': 30, 'texto_es_correcto': True, 'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE EL SALDO INSOLUTO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE DICHO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT EL SALDO INSOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO'}, 'TEXTO_CLAUSULA_HIPOTECA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': False, 'valor_encontrado': 'EL TRABAJADOR LA SENORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR LA SEÑORA ANA KARINA MARTINEZ GONZALEZ, PARA GARANTIZAR EL CUMPLIMIENTO DE TODAS Y CADA UNA DE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA, CON LA SUPERFICIE, MEDIDAS Y LINDEROS AHI DETERMINADOS, LOS CUALES SE TIENEN AQUI POR REPRODUCIDOS COMO SI A LA LETRA SE INSERTASEN.'}, 'TIPO_INMUEBLE': {'pagina_encontrado': 3, 'pagina_es_correcta': False, 'pagina_real': 53, 'texto_es_correcto': False, 'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA EN CONDOMINIO'}}, 'ner-certificado': {'entidades_correctas': 8, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6666666666666666, 'paginas_correctas': 8, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'VSM', 'valor_real': 'VSM'}, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'MAGA841230MGTRNN 01', 'valor_real': 'MAGA841230MGTRNN 01'}, 'DELEGACION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'GUANAJUATO', 'valor_real': 'GUANAJUATO'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '29 DE JULIO\xa0DE 2017'}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'pagina_encontrado': 3, 'pagina_es_correcta': True, 'pagina_real': 3, 'texto_es_correcto': True, 'valor_encontrado': '38', 'valor_real': '38'}, 'MONTO_VSM_INTERES_MORATORIO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': '62.9330', 'valor_real': '629330'}, 'NOMBRE_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'MARTINEZ GONZALEZ ANA KARINA', 'valor_real': 'MARTINEZ GONZALEZ ANA KARINA'}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '1113002217', 'valor_real': '1113002217'}, 'NUMERO_HOJAS_CA': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '3', 'valor_real': '3'}, 'PRORROGAS_APLICADAS': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': '31/03/2014', 'valor_real': '41729'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'MAGA841230641', 'valor_real': 'MAGA841230641'}, 'SUERTE_PRINCIPAL': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': '187.7420', 'valor_real': '1877420'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/1113002217.xlsx
+++ b/app/results/reviewed/1113002217.xlsx
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">

--- a/app/results/reviewed/1113002217.xlsx
+++ b/app/results/reviewed/1113002217.xlsx
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
